--- a/Temp/Temp.xlsx
+++ b/Temp/Temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\Documents\UiPath\Newfolder\AIPriceComparisonApp\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F48EB90-AF08-4664-86B6-A9DEC1177BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81F60CA-1E66-4383-B589-AC0CBA0A601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1725" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <t>Alice_Aw's Market Fresh Indonesian Pork Belly (Sliced)</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/aw-s-market-fresh-indonesian-pork-belly-sliced-250-g-90018587</t>
+    <t>https://www.fairprice.com.sg/search?query=Aw%27s%20Market%20Fresh%20Indonesian%20Pork%20Belly%20(Sliced)</t>
   </si>
   <si>
     <t>$6.00</t>
@@ -136,7 +136,7 @@
     <t>Bruce_Pokka Ice Lemon Tea</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/pokka-ice-lemon-tea-15lt-376287</t>
+    <t>https://www.fairprice.com.sg/search?query=Pokka%20Ice%20Lemon%20Tea</t>
   </si>
   <si>
     <t>$2.15</t>
@@ -151,13 +151,13 @@
     <t>Bruce_Ruffles Chicken</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/aw-s-market-chicken-breast-skinless-200-g-90134679</t>
-  </si>
-  <si>
-    <t>$3.50</t>
-  </si>
-  <si>
-    <t>3.5</t>
+    <t>https://www.fairprice.com.sg/product/ruffles-potato-chips-chicken-184-2g-13086598</t>
+  </si>
+  <si>
+    <t>$5.30</t>
+  </si>
+  <si>
+    <t>5.3</t>
   </si>
   <si>
     <t>Wayne</t>
@@ -169,7 +169,7 @@
     <t>Wayne_Marigold HL Milk - Chocolate</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/marigold-hl-milk-chocolate-1lt-10054432</t>
+    <t>https://www.fairprice.com.sg/search?query=Marigold%20HL%20Milk%20-%20Chocolate</t>
   </si>
   <si>
     <t>$3.53</t>
@@ -232,7 +232,7 @@
     <t>George_Lipton Yellow Label Tea</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/lipton-yellow-label-teabags-100s-72207</t>
+    <t>https://www.fairprice.com.sg/search?query=Lipton%20Yellow%20Label%20Tea</t>
   </si>
   <si>
     <t>$5.70</t>
@@ -247,7 +247,7 @@
     <t>George_Panteen Shampoo Hail Fall Control</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/pantene-shampoo-hair-fall-control-680ml-13194383</t>
+    <t>https://www.fairprice.com.sg/search?query=Panteen%20Shampoo%20Hail%20Fall%20Control</t>
   </si>
   <si>
     <t>$11.61</t>
@@ -720,7 +720,7 @@
         <v>3.99</v>
       </c>
       <c r="J2">
-        <v>14.99</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
         <v>3.99</v>
       </c>
       <c r="J5">
-        <v>26.49</v>
+        <v>28.29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/Temp/Temp.xlsx
+++ b/Temp/Temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\Documents\UiPath\Newfolder\AIPriceComparisonApp\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81F60CA-1E66-4383-B589-AC0CBA0A601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E1E86D-D118-447C-B801-E2D681C6C725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -70,16 +70,16 @@
     <t>Alice_Fresh Blueberries</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/agroberries-premium-blueberry-bleuets-125g-10632060</t>
-  </si>
-  <si>
-    <t>$3.90</t>
+    <t>https://www.fairprice.com.sg/product/f-n-fruit-tree-fresh-bottle-juice-blueberry-cranberry-200ml-12207922</t>
+  </si>
+  <si>
+    <t>$1.21</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>3.9</t>
+    <t>1.21</t>
   </si>
   <si>
     <t>Fiber Jelly Grape</t>
@@ -103,7 +103,7 @@
     <t>Alice_Aw's Market Fresh Indonesian Pork Belly (Sliced)</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/search?query=Aw%27s%20Market%20Fresh%20Indonesian%20Pork%20Belly%20(Sliced)</t>
+    <t>https://www.fairprice.com.sg/product/aw-s-market-fresh-indonesian-pork-belly-sliced-250-g-90018587</t>
   </si>
   <si>
     <t>$6.00</t>
@@ -121,13 +121,13 @@
     <t>Bruce_Nutella Hazelnut Spread</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/13140390</t>
-  </si>
-  <si>
-    <t>$11.85</t>
-  </si>
-  <si>
-    <t>11.85</t>
+    <t>https://www.fairprice.com.sg/search?query=Nutella%20Hazelnut%20Spread</t>
+  </si>
+  <si>
+    <t>$13.07</t>
+  </si>
+  <si>
+    <t>13.07</t>
   </si>
   <si>
     <t>Pokka Ice Lemon Tea</t>
@@ -169,7 +169,7 @@
     <t>Wayne_Marigold HL Milk - Chocolate</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/search?query=Marigold%20HL%20Milk%20-%20Chocolate</t>
+    <t>https://www.fairprice.com.sg/product/marigold-hl-milk-chocolate-1lt-10054432</t>
   </si>
   <si>
     <t>$3.53</t>
@@ -187,12 +187,6 @@
     <t>https://www.fairprice.com.sg/product/lay-s-potato-chips-classic-170g-13218718</t>
   </si>
   <si>
-    <t>$4.80</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
     <t>Milo Instant Chocalate Malt Drink</t>
   </si>
   <si>
@@ -232,7 +226,7 @@
     <t>George_Lipton Yellow Label Tea</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/search?query=Lipton%20Yellow%20Label%20Tea</t>
+    <t>https://www.fairprice.com.sg/product/lipton-yellow-label-teabags-100s-72207</t>
   </si>
   <si>
     <t>$5.70</t>
@@ -247,7 +241,7 @@
     <t>George_Panteen Shampoo Hail Fall Control</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/search?query=Panteen%20Shampoo%20Hail%20Fall%20Control</t>
+    <t>https://www.fairprice.com.sg/product/pantene-shampoo-hair-fall-control-680ml-13194383</t>
   </si>
   <si>
     <t>$11.61</t>
@@ -720,7 +714,7 @@
         <v>3.99</v>
       </c>
       <c r="J2">
-        <v>22.52</v>
+        <v>19.829999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -798,7 +792,7 @@
         <v>3.99</v>
       </c>
       <c r="J5">
-        <v>28.29</v>
+        <v>29.509999999999899</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -876,7 +870,7 @@
         <v>3.99</v>
       </c>
       <c r="J8">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -893,13 +887,13 @@
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -907,45 +901,45 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
         <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
         <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -959,48 +953,48 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
         <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
         <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1035,10 +1029,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -1049,16 +1043,16 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -1081,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -1092,16 +1086,16 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1136,10 +1130,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -1147,7 +1141,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>3.53</v>
@@ -1156,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>3.53</v>
@@ -1173,7 +1167,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>4.75</v>
@@ -1182,7 +1176,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>4.75</v>
@@ -1190,7 +1184,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>48.57</v>
@@ -1199,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>8.57</v>
@@ -1240,10 +1234,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -1251,7 +1245,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1260,7 +1254,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1277,7 +1271,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>9.99</v>
@@ -1286,7 +1280,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <v>9.99</v>
@@ -1294,7 +1288,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>11.6</v>
@@ -1303,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>11.6</v>
@@ -1346,10 +1340,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -1357,7 +1351,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>3.95</v>
@@ -1366,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>3.95</v>
@@ -1392,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>3.6</v>
@@ -1400,7 +1394,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>4.45</v>
@@ -1409,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>4.45</v>

--- a/Temp/Temp.xlsx
+++ b/Temp/Temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\Documents\UiPath\Newfolder\AIPriceComparisonApp\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E1E86D-D118-447C-B801-E2D681C6C725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1986B5F-B415-4104-9072-19CCDEAFB33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="2025" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>Alice_Fresh Blueberries</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/f-n-fruit-tree-fresh-bottle-juice-blueberry-cranberry-200ml-12207922</t>
+    <t>https://www.fairprice.com.sg/product/meiji-paigen-culture-yoghurt-drink-blueberry-160ml-13045018</t>
   </si>
   <si>
     <t>$1.21</t>
@@ -121,7 +121,7 @@
     <t>Bruce_Nutella Hazelnut Spread</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/search?query=Nutella%20Hazelnut%20Spread</t>
+    <t>https://www.fairprice.com.sg/product/13140390</t>
   </si>
   <si>
     <t>$13.07</t>
@@ -136,7 +136,7 @@
     <t>Bruce_Pokka Ice Lemon Tea</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/search?query=Pokka%20Ice%20Lemon%20Tea</t>
+    <t>https://www.fairprice.com.sg/product/pokka-ice-lemon-tea-15lt-376287</t>
   </si>
   <si>
     <t>$2.15</t>

--- a/Temp/Temp.xlsx
+++ b/Temp/Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\Documents\UiPath\Newfolder\AIPriceComparisonApp\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1986B5F-B415-4104-9072-19CCDEAFB33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2E7B95-B37E-4E95-87F4-A5FADB03CE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4455" yWindow="2025" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
     <t>Alice_Fiber Jelly Grape</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/triko-fibre-konjac-coconut-jelly-grape-316g-11162478</t>
+    <t>https://www.fairprice.com.sg/search?query=Fiber%20Jelly%20Grape</t>
   </si>
   <si>
     <t>$3.63</t>
@@ -103,7 +103,7 @@
     <t>Alice_Aw's Market Fresh Indonesian Pork Belly (Sliced)</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/aw-s-market-fresh-indonesian-pork-belly-sliced-250-g-90018587</t>
+    <t>https://www.fairprice.com.sg/search?query=Aw%27s%20Market%20Fresh%20Indonesian%20Pork%20Belly%20(Sliced)</t>
   </si>
   <si>
     <t>$6.00</t>
@@ -136,7 +136,7 @@
     <t>Bruce_Pokka Ice Lemon Tea</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/pokka-ice-lemon-tea-15lt-376287</t>
+    <t>https://www.fairprice.com.sg/search?query=Pokka%20Ice%20Lemon%20Tea</t>
   </si>
   <si>
     <t>$2.15</t>
@@ -169,7 +169,7 @@
     <t>Wayne_Marigold HL Milk - Chocolate</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/marigold-hl-milk-chocolate-1lt-10054432</t>
+    <t>https://www.fairprice.com.sg/search?query=Marigold%20HL%20Milk%20-%20Chocolate</t>
   </si>
   <si>
     <t>$3.53</t>
@@ -193,7 +193,7 @@
     <t>Wayne_Milo Instant Chocalate Malt Drink</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/milo-instant-chocolate-malt-drink-powder-with-milk-gao-kosong-750g-13135484</t>
+    <t>https://www.fairprice.com.sg/search?query=Milo%20Instant%20Chocalate%20Malt%20Drink</t>
   </si>
   <si>
     <t>$8.58</t>
@@ -211,7 +211,7 @@
     <t>George_Maggi Big Curry Noodle</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/maggi-2-min-big-noodles-curry-5s-x-111g-13064199</t>
+    <t>https://www.fairprice.com.sg/search?query=Maggi%20Big%20Curry%20Noodle</t>
   </si>
   <si>
     <t>$3.33</t>
@@ -226,7 +226,7 @@
     <t>George_Lipton Yellow Label Tea</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/lipton-yellow-label-teabags-100s-72207</t>
+    <t>https://www.fairprice.com.sg/search?query=Lipton%20Yellow%20Label%20Tea</t>
   </si>
   <si>
     <t>$5.70</t>
@@ -241,7 +241,7 @@
     <t>George_Panteen Shampoo Hail Fall Control</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/pantene-shampoo-hair-fall-control-680ml-13194383</t>
+    <t>https://www.fairprice.com.sg/search?query=Panteen%20Shampoo%20Hail%20Fall%20Control</t>
   </si>
   <si>
     <t>$11.61</t>
